--- a/GanttGamingCafé.xlsx
+++ b/GanttGamingCafé.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
   <si>
-    <t xml:space="preserve">M304</t>
+    <t xml:space="preserve">M306</t>
   </si>
   <si>
     <t xml:space="preserve">Gaming Café</t>
@@ -120,6 +120,7 @@
         <sz val="10"/>
         <rFont val="Verdana"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">S</t>
     </r>
@@ -129,6 +130,7 @@
         <sz val="10"/>
         <rFont val="Verdana"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ervice &amp; Angebot</t>
     </r>
@@ -198,6 +200,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -218,38 +221,45 @@
       <sz val="36"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -257,12 +267,14 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -376,40 +388,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -417,19 +429,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,50 +445,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,7 +493,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,7 +501,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -505,7 +509,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,7 +521,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -529,7 +533,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -719,15 +723,15 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.7"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="43.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,117 +806,117 @@
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="15" t="n">
+      <c r="B4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="15" t="n">
+      <c r="B5" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="15" t="n">
+      <c r="B6" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="H6" s="15"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15" t="n">
+      <c r="B7" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="H7" s="15"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="H8" s="15"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="10" t="n">
@@ -922,89 +926,89 @@
       <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="15" t="n">
+      <c r="B10" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="15" t="n">
+      <c r="B11" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="20"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="15" t="n">
+      <c r="B12" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="15" t="n">
+      <c r="B13" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="H13" s="15"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="10" t="n">
@@ -1014,66 +1018,66 @@
       <c r="C14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="15" t="n">
+      <c r="B15" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="15" t="n">
+      <c r="B16" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="17"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="17"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="10" t="n">
@@ -1083,70 +1087,70 @@
       <c r="C18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="15" t="n">
+      <c r="B19" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="15" t="n">
+      <c r="B20" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="15" t="n">
+      <c r="B21" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="10" t="n">
@@ -1156,68 +1160,68 @@
       <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="15" t="n">
+      <c r="B23" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="15" t="n">
+      <c r="B24" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="15" t="n">
+      <c r="B25" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="10" t="n">
@@ -1227,61 +1231,61 @@
       <c r="C26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="15" t="n">
+      <c r="B27" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="15" t="n">
+      <c r="B28" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/GanttGamingCafé.xlsx
+++ b/GanttGamingCafé.xlsx
@@ -723,7 +723,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="N35" activeCellId="0" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
